--- a/pinsX0.xlsx
+++ b/pinsX0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="pinsX0" sheetId="1" r:id="rId1"/>
@@ -603,15 +603,9 @@
     <t>A01</t>
   </si>
   <si>
-    <t>R55</t>
-  </si>
-  <si>
     <t>A02</t>
   </si>
   <si>
-    <t>R57</t>
-  </si>
-  <si>
     <t>A03</t>
   </si>
   <si>
@@ -639,21 +633,12 @@
     <t>A07</t>
   </si>
   <si>
-    <t>R43</t>
-  </si>
-  <si>
     <t>A08</t>
   </si>
   <si>
-    <t>R41</t>
-  </si>
-  <si>
     <t>A09</t>
   </si>
   <si>
-    <t>R53</t>
-  </si>
-  <si>
     <t>A10</t>
   </si>
   <si>
@@ -663,9 +648,6 @@
     <t>A11</t>
   </si>
   <si>
-    <t>R32</t>
-  </si>
-  <si>
     <t>A12</t>
   </si>
   <si>
@@ -693,33 +675,18 @@
     <t>B00</t>
   </si>
   <si>
-    <t>R44</t>
-  </si>
-  <si>
     <t>B01</t>
   </si>
   <si>
-    <t>R42</t>
-  </si>
-  <si>
     <t>B02</t>
   </si>
   <si>
-    <t>R51</t>
-  </si>
-  <si>
     <t>B03</t>
   </si>
   <si>
-    <t>R47</t>
-  </si>
-  <si>
     <t>B04</t>
   </si>
   <si>
-    <t>R49</t>
-  </si>
-  <si>
     <t>B05</t>
   </si>
   <si>
@@ -747,33 +714,18 @@
     <t>B09</t>
   </si>
   <si>
-    <t>R45</t>
-  </si>
-  <si>
     <t>B10</t>
   </si>
   <si>
-    <t>R36</t>
-  </si>
-  <si>
     <t>B12</t>
   </si>
   <si>
-    <t>R50</t>
-  </si>
-  <si>
     <t>B13</t>
   </si>
   <si>
-    <t>R48</t>
-  </si>
-  <si>
     <t>B14</t>
   </si>
   <si>
-    <t>R46</t>
-  </si>
-  <si>
     <t>B15</t>
   </si>
   <si>
@@ -801,9 +753,6 @@
     <t>C03</t>
   </si>
   <si>
-    <t>R54</t>
-  </si>
-  <si>
     <t>C04</t>
   </si>
   <si>
@@ -819,9 +768,6 @@
     <t>C06</t>
   </si>
   <si>
-    <t>R39</t>
-  </si>
-  <si>
     <t>C07</t>
   </si>
   <si>
@@ -919,6 +865,60 @@
   </si>
   <si>
     <t>SPI_Sel</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>R27</t>
+  </si>
+  <si>
+    <t>R29</t>
+  </si>
+  <si>
+    <t>R17</t>
+  </si>
+  <si>
+    <t>R03</t>
+  </si>
+  <si>
+    <t>R05</t>
+  </si>
+  <si>
+    <t>R16</t>
+  </si>
+  <si>
+    <t>R30</t>
+  </si>
+  <si>
+    <t>R28</t>
+  </si>
+  <si>
+    <t>R06</t>
+  </si>
+  <si>
+    <t>R04</t>
+  </si>
+  <si>
+    <t>R19</t>
+  </si>
+  <si>
+    <t>R02</t>
+  </si>
+  <si>
+    <t>R01</t>
   </si>
 </sst>
 </file>
@@ -1489,7 +1489,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -1505,7 +1505,8 @@
     <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1863,8 +1864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P38" sqref="P38"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1887,10 +1888,10 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>248</v>
+        <v>294</v>
       </c>
       <c r="B1" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>125</v>
@@ -1902,7 +1903,7 @@
         <v>59</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="H1" t="s">
         <v>80</v>
@@ -1919,33 +1920,28 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>266</v>
+        <v>200</v>
       </c>
       <c r="B2" t="s">
-        <v>267</v>
+        <v>206</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>146</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>68</v>
+      <c r="E2" t="s">
+        <v>54</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" t="s">
-        <v>148</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>68</v>
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>187</v>
@@ -1953,33 +1949,31 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="B3" t="s">
-        <v>265</v>
+        <v>205</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>143</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>63</v>
+      <c r="E3" t="s">
+        <v>49</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" t="s">
-        <v>145</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>63</v>
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="Q3" s="8" t="s">
         <v>188</v>
@@ -1987,10 +1981,10 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="B4" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>118</v>
@@ -2020,10 +2014,10 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>230</v>
+        <v>287</v>
       </c>
       <c r="B5" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>92</v>
@@ -2061,10 +2055,10 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>232</v>
+        <v>288</v>
       </c>
       <c r="B6" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>98</v>
@@ -2096,10 +2090,10 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B7" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>128</v>
@@ -2123,15 +2117,15 @@
         <v>131</v>
       </c>
       <c r="Q7" s="13" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>214</v>
+        <v>286</v>
       </c>
       <c r="B8" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>64</v>
@@ -2155,15 +2149,15 @@
         <v>68</v>
       </c>
       <c r="Q8" s="14" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B9" t="s">
         <v>194</v>
-      </c>
-      <c r="B9" t="s">
-        <v>195</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>11</v>
@@ -2222,15 +2216,15 @@
         <v>10</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="B11" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>102</v>
@@ -2242,7 +2236,7 @@
         <v>105</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="I11" t="s">
         <v>103</v>
@@ -2259,10 +2253,10 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="B12" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>106</v>
@@ -2274,7 +2268,7 @@
         <v>109</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="I12" t="s">
         <v>108</v>
@@ -2288,10 +2282,10 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="B13" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>173</v>
@@ -2311,10 +2305,10 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>23</v>
@@ -2340,10 +2334,10 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>204</v>
+        <v>284</v>
       </c>
       <c r="B15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>39</v>
@@ -2369,10 +2363,10 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>202</v>
+        <v>283</v>
       </c>
       <c r="B16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>33</v>
@@ -2398,10 +2392,10 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="B17" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>140</v>
@@ -2418,10 +2412,10 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="B18" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>152</v>
@@ -2450,10 +2444,10 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="B19" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>86</v>
@@ -2470,10 +2464,10 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="B20" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>17</v>
@@ -2502,10 +2496,10 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="B21" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>134</v>
@@ -2522,10 +2516,10 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="B22" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>132</v>
@@ -2542,10 +2536,10 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B23" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>73</v>
@@ -2574,10 +2568,10 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="B24" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>82</v>
@@ -2600,10 +2594,10 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="B25" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>159</v>
@@ -2626,10 +2620,10 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>238</v>
+        <v>290</v>
       </c>
       <c r="B26" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>110</v>
@@ -2656,10 +2650,10 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>212</v>
+        <v>285</v>
       </c>
       <c r="B27" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>57</v>
@@ -2685,65 +2679,72 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>210</v>
+        <v>297</v>
       </c>
       <c r="B28" t="s">
-        <v>211</v>
+        <v>249</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>53</v>
+        <v>146</v>
       </c>
       <c r="D28" t="s">
         <v>1</v>
       </c>
-      <c r="E28" t="s">
-        <v>54</v>
+      <c r="E28" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H28" t="s">
-        <v>56</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M28" t="s">
+        <v>148</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>208</v>
+        <v>296</v>
       </c>
       <c r="B29" t="s">
-        <v>209</v>
+        <v>248</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>48</v>
+        <v>143</v>
       </c>
       <c r="D29" t="s">
         <v>1</v>
       </c>
-      <c r="E29" t="s">
-        <v>49</v>
+      <c r="E29" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" t="s">
-        <v>51</v>
-      </c>
-      <c r="K29" t="s">
-        <v>52</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L29" t="s">
+        <v>145</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="B30" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>137</v>
@@ -2755,7 +2756,7 @@
         <v>138</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>131</v>
@@ -2763,10 +2764,10 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="B31" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>136</v>
@@ -2778,7 +2779,7 @@
         <v>126</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>126</v>
@@ -2789,57 +2790,58 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c r="B32" t="s">
-        <v>261</v>
+        <v>233</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="L32" s="4"/>
+        <v>183</v>
+      </c>
+      <c r="H32" t="s">
+        <v>40</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="B33" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="D33" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>124</v>
+        <v>59</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="H33" t="s">
-        <v>40</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>120</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="I33" s="15"/>
+      <c r="L33" s="4"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>200</v>
+        <v>282</v>
       </c>
       <c r="B34" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>29</v>
@@ -2891,10 +2893,10 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B36" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>78</v>
@@ -2906,21 +2908,21 @@
         <v>59</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>147</v>
+        <v>104</v>
       </c>
       <c r="H36" t="s">
         <v>80</v>
       </c>
-      <c r="I36" s="15" t="s">
+      <c r="I36" s="16" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>240</v>
+        <v>291</v>
       </c>
       <c r="B37" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>114</v>
@@ -2932,7 +2934,7 @@
         <v>116</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="G37" s="4"/>
       <c r="I37" s="11" t="s">
@@ -2950,10 +2952,10 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="B38" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>149</v>
@@ -2976,10 +2978,10 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="B39" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>43</v>
@@ -3008,10 +3010,10 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="B40" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>164</v>
@@ -3028,10 +3030,10 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="B41" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>161</v>
@@ -3051,10 +3053,10 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>244</v>
+        <v>292</v>
       </c>
       <c r="B42" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>121</v>
@@ -3066,7 +3068,7 @@
         <v>75</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" t="s">
@@ -3081,10 +3083,10 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="B43" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>167</v>
@@ -3101,10 +3103,10 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="B44" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>170</v>
@@ -3121,10 +3123,10 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="B45" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>157</v>
@@ -3144,10 +3146,10 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B46" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>69</v>
@@ -3165,10 +3167,10 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B47" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>71</v>
@@ -3186,10 +3188,10 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="B48" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>88</v>
@@ -3219,10 +3221,10 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="B49" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>177</v>
@@ -3237,10 +3239,10 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="B50" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>179</v>
